--- a/data/income_statement/3digits/total/011_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/011_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>011-Growing of non-perennial crops</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>011-Growing of non-perennial crops</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>483453.89745</v>
@@ -956,37 +862,42 @@
         <v>640072.54642</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>817164.76828</v>
+        <v>817164.7682799998</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1111577.86493</v>
+        <v>1112583.1303</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1249101.12113</v>
+        <v>1258692.15805</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1887763.79528</v>
+        <v>1909089.44982</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1997869.19046</v>
+        <v>2050921.75385</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2348658.28513</v>
+        <v>2527663.28702</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>3199164.15085</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3773103.05329</v>
+        <v>3776099.10063</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4578697.969939999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4759657.228150001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6394651.734</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>429093.57589</v>
@@ -995,40 +906,45 @@
         <v>576784.6682999999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>743789.9820900001</v>
+        <v>743789.9820899999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1014857.9644</v>
+        <v>1015863.06205</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1094364.13035</v>
+        <v>1103941.27317</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1646533.66208</v>
+        <v>1666165.72673</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1736321.48972</v>
+        <v>1787114.91104</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2101324.877640001</v>
+        <v>2263547.60573</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2802852.98859</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3238544.8663</v>
+        <v>3240636.14502</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3977989.10012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4148323.45565</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5612229.238</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>45259.48712000001</v>
+        <v>45259.48712</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>50446.40226</v>
@@ -1043,13 +959,13 @@
         <v>132511.80302</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>212214.00199</v>
+        <v>213893.49291</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>213120.5055</v>
+        <v>214936.7849</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>203932.55621</v>
+        <v>219455.78541</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>315181.94067</v>
@@ -1058,16 +974,21 @@
         <v>471688.64455</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>509165.80199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>515836.32799</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>682714.789</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9100.834440000001</v>
+        <v>9100.834439999999</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>12841.47586</v>
@@ -1076,43 +997,48 @@
         <v>13894.30586</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>20692.18563</v>
+        <v>20692.35335</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>22225.18776</v>
+        <v>22239.08186</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>29016.13121</v>
+        <v>29030.23018</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>48427.19523999999</v>
+        <v>48870.05791</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>43400.85128</v>
+        <v>44659.89588</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>81129.22159</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>62869.54244</v>
+        <v>63774.31106</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>91543.06783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>95497.44450999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>99707.70699999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>5803.98715</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9747.967540000001</v>
+        <v>9747.96754</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6629.291310000001</v>
+        <v>6629.29131</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>16617.99841</v>
@@ -1121,28 +1047,33 @@
         <v>15995.78261</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>31718.74477</v>
+        <v>31726.1071</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>36502.16293</v>
+        <v>36503.93173</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>23801.24955</v>
+        <v>60516.78849</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>51066.26523</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>60358.28545</v>
+        <v>60372.0263</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>105430.84932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>107903.68626</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>563843.115</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4462.90556</v>
@@ -1160,28 +1091,33 @@
         <v>12369.67431</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>15170.22885</v>
+        <v>15177.59118</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>20445.82745</v>
+        <v>20447.59625</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>18224.38114</v>
+        <v>24260.40083</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>26966.1985</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>32215.50111</v>
+        <v>32229.24196</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>71332.55991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>73301.94753999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>362574.671</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1169.1374</v>
@@ -1205,7 +1141,7 @@
         <v>15137.36067</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4080.25257</v>
+        <v>34547.4046</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>22617.01975</v>
@@ -1214,13 +1150,18 @@
         <v>24361.74232</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>29980.94702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>30484.39633</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>196761.215</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>171.94419</v>
@@ -1241,10 +1182,10 @@
         <v>1527.1519</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>918.97481</v>
+        <v>918.9748099999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1496.61584</v>
+        <v>1708.98306</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1483.04698</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>4117.34239</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>4507.229</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>477649.9103</v>
+        <v>477649.9102999999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>630324.5788799999</v>
+        <v>630324.57888</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>810535.47697</v>
+        <v>810535.4769700001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1094959.86652</v>
+        <v>1095965.13189</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1233105.33852</v>
+        <v>1242696.37544</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1856045.05051</v>
+        <v>1877363.34272</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1961367.02753</v>
+        <v>2014417.82212</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2324857.03558</v>
+        <v>2467146.49853</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3148097.88562</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3712744.76784</v>
+        <v>3715727.07433</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4473267.12062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4651753.54189</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5830808.619</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>396647.00137</v>
@@ -1307,37 +1258,42 @@
         <v>505541.44537</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>655413.15414</v>
+        <v>655416.2687200001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>913970.91226</v>
+        <v>915074.2738099999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1016428.79461</v>
+        <v>1025024.93749</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1562737.00074</v>
+        <v>1580409.74942</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1621770.42618</v>
+        <v>1667661.52345</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2025389.14904</v>
+        <v>2113390.82764</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2561972.18225</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3005444.093599999</v>
+        <v>3008066.41633</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3729246.280379999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3866396.27301</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4608084.583</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>179299.11897</v>
@@ -1349,34 +1305,39 @@
         <v>317164.16</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>525708.25157</v>
+        <v>526636.6246100001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>567864.3770699999</v>
+        <v>570594.74708</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>790190.30914</v>
+        <v>790683.9881900001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>848354.60592</v>
+        <v>858327.22919</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>950412.29577</v>
+        <v>1020446.84218</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1134898.93912</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1637923.8361</v>
+        <v>1638669.28695</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1770458.64627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1834754.27157</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2680456.164</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>190358.53769</v>
@@ -1391,31 +1352,36 @@
         <v>337367.46296</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>398141.15324</v>
+        <v>403876.55682</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>722458.92091</v>
+        <v>738010.51193</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>720804.00267</v>
+        <v>756460.38501</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>912695.8113300001</v>
+        <v>930147.39823</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1305024.4601</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1293328.63344</v>
+        <v>1294247.03776</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1892384.94526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1958026.39744</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1868388.171</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>17288.21164</v>
@@ -1424,37 +1390,42 @@
         <v>25305.38572</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>33869.51207</v>
+        <v>33872.62665</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>45441.01301</v>
+        <v>45616.00152</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>41083.75259</v>
+        <v>41214.12188</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>47912.54623</v>
+        <v>49540.02484000001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>50786.59725</v>
+        <v>50971.74313999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>48242.88442</v>
+        <v>48618.36971000001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>92855.48510000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>65269.13859</v>
+        <v>66227.60614999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>53010.34957</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>59848.26472</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>49704.538</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>9701.13307</v>
@@ -1475,10 +1446,10 @@
         <v>2175.22446</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1825.22034</v>
+        <v>1902.16611</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>114038.15752</v>
+        <v>114178.21752</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>29193.29793</v>
@@ -1487,13 +1458,18 @@
         <v>8922.485470000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>13392.33928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13767.33928</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9535.709999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>81002.90893000001</v>
@@ -1502,37 +1478,42 @@
         <v>124783.13351</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>155122.32283</v>
+        <v>155119.20825</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>180988.95426</v>
+        <v>180890.85808</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>216676.54391</v>
+        <v>217671.43795</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>293308.04977</v>
+        <v>296953.5933</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>339596.60135</v>
+        <v>346756.29867</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>299467.88654</v>
+        <v>353755.67089</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>586125.70337</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>707300.67424</v>
+        <v>707660.6580000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>744020.84024</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>785357.26888</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1222724.036</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>75468.94236</v>
@@ -1544,34 +1525,39 @@
         <v>123468.98053</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>140531.77126</v>
+        <v>140547.75124</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>147122.98894</v>
+        <v>148215.86333</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>179844.11842</v>
+        <v>183260.35219</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>205749.35</v>
+        <v>210439.77865</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>208682.45162</v>
+        <v>240671.92025</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>328140.51419</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>415849.7189</v>
+        <v>416204.41063</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>494634.43465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>511393.72529</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>661079.314</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1080.58167</v>
@@ -1586,16 +1572,16 @@
         <v>1158.95738</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>903.9090900000001</v>
+        <v>903.90909</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>2008.6386</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6970.13918</v>
+        <v>7151.836550000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>6331.47684</v>
+        <v>6331.476840000001</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>17023.13234</v>
@@ -1604,13 +1590,18 @@
         <v>23875.05998</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>28435.46395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>29886.20012</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>61309.422</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>26801.16092</v>
@@ -1625,31 +1616,36 @@
         <v>45990.80398</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>48060.616</v>
+        <v>48340.80787</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>70649.60883</v>
+        <v>71799.49628000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>81447.48641</v>
+        <v>82200.02253</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>77021.72725</v>
+        <v>102217.27385</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>138074.72459</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>172233.51479</v>
+        <v>172254.49792</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>211149.19668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>220629.47969</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>250835.59</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>47587.19977000001</v>
@@ -1661,73 +1657,83 @@
         <v>83480.00374000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>93382.00989999999</v>
+        <v>93397.98987999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>98158.46385</v>
+        <v>98971.14636999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>107185.87099</v>
+        <v>109452.21731</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>117331.72441</v>
+        <v>121087.91957</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>125329.24753</v>
+        <v>132123.16956</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>173042.65726</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>219741.14413</v>
+        <v>220074.85273</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>255049.77402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>260878.04548</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>348934.302</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>5533.966569999999</v>
+        <v>5533.966570000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>25472.45795</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>31653.3423</v>
+        <v>31650.22772</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>40457.183</v>
+        <v>40343.10683999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>69553.55497</v>
+        <v>69455.57462</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>113463.93135</v>
+        <v>113693.24111</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>133847.25135</v>
+        <v>136316.52002</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>90785.43492</v>
+        <v>113083.75064</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>257985.18918</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>291450.95534</v>
+        <v>291456.24737</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>249386.40559</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>273963.54359</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>561644.722</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>13249.63006</v>
@@ -1739,34 +1745,39 @@
         <v>20262.21687</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>74634.40484</v>
+        <v>74739.21200999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>36052.40441</v>
+        <v>36087.11132</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>61921.00389</v>
+        <v>62793.66954</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>79149.27496000001</v>
+        <v>80311.86183000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>167117.55318</v>
+        <v>171533.59689</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>200022.45626</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>395584.0284</v>
+        <v>395578.93853</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>261992.57826</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>330500.8986</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>374917.011</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>51.43815</v>
@@ -1793,7 +1804,7 @@
         <v>8326.841039999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6583.628479999999</v>
+        <v>6583.62848</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>7274.064189999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>68842.39128</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2681.656</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>4347.936</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1380.01962</v>
@@ -1859,31 +1880,36 @@
         <v>4402.91923</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3752.15517</v>
+        <v>3754.66727</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4946.84915</v>
+        <v>4948.582280000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9091.11932</v>
+        <v>9261.00729</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>10585.39502</v>
+        <v>11418.64038</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>19789.2268</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>55583.06358</v>
+        <v>55583.06358000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>49489.49908</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>49537.90422</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>36933.826</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2.88747</v>
@@ -1892,7 +1918,7 @@
         <v>26.9564</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>40.61781</v>
+        <v>40.61781000000001</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>102.65635</v>
@@ -1904,7 +1930,7 @@
         <v>63.56157999999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>123.56696</v>
+        <v>503.10805</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>113.66425</v>
@@ -1916,13 +1942,18 @@
         <v>2016.36</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>171.65925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>620.70241</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1277.71245</v>
@@ -1934,7 +1965,7 @@
         <v>221.69225</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>68.40251000000001</v>
+        <v>68.40250999999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>120.12698</v>
@@ -1943,7 +1974,7 @@
         <v>701.72349</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>481.24893</v>
+        <v>481.2489299999999</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>237.54755</v>
@@ -1955,13 +1986,18 @@
         <v>3284.14018</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>903.7615700000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>903.7646900000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2098.778</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>341.45542</v>
@@ -1982,10 +2018,10 @@
         <v>206.59693</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>303.29691</v>
+        <v>305.2890600000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>85.00933999999999</v>
+        <v>85.3034</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>659.4009100000001</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>3234.30987</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1066.151</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>5168.86227</v>
@@ -2012,34 +2053,39 @@
         <v>11469.46647</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>64228.67791000001</v>
+        <v>64276.91604</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>14326.72233</v>
+        <v>14354.62033</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>19317.2147</v>
+        <v>19512.59781</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>19724.11633</v>
+        <v>19947.40476</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>25631.58236</v>
+        <v>27738.04168</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>44747.41813000001</v>
+        <v>44747.41813</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>237581.26477</v>
+        <v>237581.26843</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>99986.62686999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>166926.74242</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>255321.892</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>66.27055</v>
@@ -2051,10 +2097,10 @@
         <v>15.59435</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0</v>
+        <v>47.85029</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>21.76327</v>
+        <v>27.4369</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0</v>
@@ -2063,7 +2109,7 @@
         <v>1182.19323</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>602.87467</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>978.28497</v>
@@ -2072,13 +2118,18 @@
         <v>355.54226</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>618.7054000000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>8397.342000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2.44055</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>46.95327</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>38.149</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>4958.54358</v>
@@ -2126,37 +2182,42 @@
         <v>3665.08932</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4732.99848</v>
+        <v>4732.998479999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5716.50835</v>
+        <v>5725.2271</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4710.23088</v>
+        <v>4708.85406</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>8216.155359999999</v>
+        <v>8891.704770000002</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9756.684280000001</v>
+        <v>10144.56151</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>12258.9034</v>
+        <v>13132.0737</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>43143.17215999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>29741.78153</v>
+        <v>29736.688</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>39317.37707000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>39769.42504</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>63212.281</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>10234.04944</v>
@@ -2168,34 +2229,39 @@
         <v>17310.7941</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>68595.39597</v>
+        <v>68606.31249</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>31942.14427</v>
+        <v>32099.95919999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>39044.75199</v>
+        <v>39252.63659</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>54494.38202</v>
+        <v>54914.14332</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>61586.20976</v>
+        <v>68537.95503</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>95562.87387000001</v>
+        <v>95562.87387</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>335469.73208</v>
+        <v>336447.6624</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>163831.34659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>224808.49397</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>307394.269</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>216.15428</v>
@@ -2204,37 +2270,42 @@
         <v>165.43999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>331.85606</v>
+        <v>331.8560600000001</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>2937.09276</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5501.46414</v>
+        <v>5501.464140000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5294.2161</v>
+        <v>5294.250199999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6012.85153</v>
+        <v>6012.851529999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7650.88141</v>
+        <v>7655.123970000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>8637.205089999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14006.40796</v>
+        <v>14066.07279</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7673.034159999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7695.89968</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>29899.805</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1702.65669</v>
@@ -2258,22 +2329,27 @@
         <v>4908.26111</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4675.91019</v>
+        <v>5001.216179999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7420.47304</v>
+        <v>7420.473040000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9952.588520000001</v>
+        <v>9952.588519999999</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>10663.08302</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>11188.844</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.26422</v>
@@ -2306,13 +2382,18 @@
         <v>234.17667</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2434.36849</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>28.22621</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>6588.90409</v>
@@ -2324,34 +2405,39 @@
         <v>14601.67111</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>62210.38180999999</v>
+        <v>62221.29833000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>23353.48732</v>
+        <v>23511.30225</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>26341.23168</v>
+        <v>26529.90734</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>40227.06565999999</v>
+        <v>40485.02881</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>46433.56467</v>
+        <v>50780.20326</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>70908.11942</v>
+        <v>70908.11941999999</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>261255.7829</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>122726.08858</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>185466.53548</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>244776.729</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>86.0137</v>
@@ -2375,7 +2461,7 @@
         <v>1363.56834</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>970.72667</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1006.64534</v>
@@ -2384,13 +2470,18 @@
         <v>3123.88302</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>6622.08986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>7072.626230000001</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>3843.208</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1640.05646</v>
@@ -2441,34 +2537,39 @@
         <v>1168.67383</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>914.5791200000001</v>
+        <v>914.57912</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>1173.28361</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3323.47788</v>
+        <v>3342.65272</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1967.0714</v>
+        <v>2128.86955</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2825.21992</v>
+        <v>4130.05138</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7590.380169999999</v>
+        <v>7590.38017</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>46896.89301</v>
+        <v>47815.1585</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>13712.68248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13882.12335</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>17685.623</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>13338.07651</v>
@@ -2480,34 +2581,39 @@
         <v>22073.38754</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>41157.73862999999</v>
+        <v>41168.23863</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>40410.82093</v>
+        <v>40448.12031000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>46092.34164</v>
+        <v>46299.84812</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>57304.84831</v>
+        <v>57640.86821</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>64187.38519</v>
+        <v>69243.73744</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>88933.87196999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>176531.87942</v>
+        <v>176533.93642</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>146640.64202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>148405.16795</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>169116.45</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>12848.76078</v>
@@ -2519,49 +2625,54 @@
         <v>19312.43215</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>33147.45875</v>
+        <v>33157.95875</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>35115.44626999999</v>
+        <v>35152.74565</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>39040.75509000001</v>
+        <v>39248.26157</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>47940.99124</v>
+        <v>48277.01114</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>55884.01084</v>
+        <v>60940.36309000001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>80156.33094</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>136958.92649</v>
+        <v>136960.98349</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>126163.80281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>127926.1257</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>140689.94</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>489.31573</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>821.4448000000001</v>
+        <v>821.4448</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>2760.95539</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>8010.279879999999</v>
+        <v>8010.279880000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5295.374659999999</v>
+        <v>5295.37466</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>7051.586550000001</v>
@@ -2570,22 +2681,27 @@
         <v>9363.85707</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>8303.374350000002</v>
+        <v>8303.374349999998</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>8777.54103</v>
+        <v>8777.541029999998</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>39572.95293</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>20476.83921</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>20479.04225</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>28426.51</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-4788.529320000001</v>
@@ -2594,37 +2710,42 @@
         <v>10493.3863</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>12531.37753</v>
+        <v>12528.26295</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>5338.453239999999</v>
+        <v>5307.767729999997</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>33252.99418000001</v>
+        <v>32994.60643</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>90247.84161000002</v>
+        <v>90934.42594</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>101197.29598</v>
+        <v>104073.37032</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>132129.39315</v>
+        <v>146835.65506</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>273510.8996</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>175033.37224</v>
+        <v>174053.58708</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>200906.99524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>231250.78027</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>460051.014</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4884.86732</v>
@@ -2639,31 +2760,36 @@
         <v>11549.01315</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>24973.82999</v>
+        <v>24994.00157</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>26378.11222</v>
+        <v>26391.92607</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>22547.49461</v>
+        <v>22693.73797</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>19946.31107</v>
+        <v>22924.38681</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>35910.64538</v>
+        <v>35910.64537999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>51824.21386</v>
+        <v>51824.23476000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>89128.54938999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>94505.01186</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>59595.265</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>101.05486</v>
@@ -2690,7 +2816,7 @@
         <v>15.55962</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>803.99936</v>
+        <v>803.9993600000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>78.33635000000001</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>390.5729</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3668.376</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>4783.81246</v>
@@ -2717,31 +2848,36 @@
         <v>11289.45359</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24936.64115</v>
+        <v>24956.81273</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>26176.89379</v>
+        <v>26190.70764</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>22347.40186</v>
+        <v>22493.64522</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>19930.75145</v>
+        <v>22908.82719</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>35106.64601999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>51745.87751</v>
+        <v>51745.89840999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>88737.97649</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>94114.43896</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>55926.889</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>4754.79215</v>
@@ -2753,34 +2889,39 @@
         <v>15180.93386</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>11132.32817</v>
+        <v>11236.06627</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>12305.61913</v>
+        <v>12363.34607</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>25447.12884</v>
+        <v>25476.0706</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>22948.90832</v>
+        <v>24972.77752</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>47264.27336</v>
+        <v>48047.69871</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>28555.61332</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>70733.7953</v>
+        <v>70733.79532999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>57095.38227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>57859.50031</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>31134.352</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>986.1428000000001</v>
@@ -2804,7 +2945,7 @@
         <v>2663.47783</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3980.75411</v>
+        <v>4022.10111</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>4811.91012</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>5436.12799</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>4440.859</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>110.30135</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>363.3980299999999</v>
+        <v>363.39803</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>609.48104</v>
@@ -2834,16 +2980,16 @@
         <v>3280.59045</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>920.60096</v>
+        <v>920.6009600000001</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>2166.90087</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>502.75501</v>
+        <v>680.18472</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2167.566960000001</v>
+        <v>2180.99573</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1268.29889</v>
@@ -2852,52 +2998,62 @@
         <v>2153.53284</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8042.372969999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8043.444060000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2093.509</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3658.348</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6180.17901</v>
+        <v>6180.179010000001</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>13064.27338</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7510.74479</v>
+        <v>7614.48289</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10884.38319</v>
+        <v>10942.11013</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>22002.78043</v>
+        <v>22031.72219</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>19782.67548</v>
+        <v>21629.11497</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>41115.95229000001</v>
+        <v>41844.60187000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>22475.40431</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>66164.67115000001</v>
+        <v>66164.67118</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>43616.88131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>44379.92826000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>24599.984</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-4658.45415</v>
@@ -2906,37 +3062,42 @@
         <v>34082.22865999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>4009.50475</v>
+        <v>4006.39017</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>5755.138220000001</v>
+        <v>5620.714610000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>45921.20504</v>
+        <v>45625.26192999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>91178.82498999999</v>
+        <v>91850.28141</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>100795.88227</v>
+        <v>101794.33077</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>104811.43086</v>
+        <v>121712.34316</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>280865.93166</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>156123.7908</v>
+        <v>155144.0265099999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>232940.16236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>267896.29182</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>488511.927</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4535.81105</v>
@@ -2948,70 +3109,78 @@
         <v>9203.24271</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8330.780060000001</v>
+        <v>8331.64702</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>10428.87231</v>
+        <v>10448.028</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15305.26044</v>
+        <v>15557.09727</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>17452.68634</v>
+        <v>18038.25132</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>16397.96991</v>
+        <v>20651.90962</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>37511.64526</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>65832.16656</v>
+        <v>65840.00465</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>43934.00234000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>45011.01147999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>120581.015</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-9194.265200000002</v>
+        <v>-9194.2652</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>23955.69376999999</v>
+        <v>23955.69377</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5193.737960000001</v>
+        <v>-5196.85254</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-2575.64184</v>
+        <v>-2710.93241</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>35492.33272999999</v>
+        <v>35177.23393</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>75873.56455</v>
+        <v>76293.18414</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>83343.19592999999</v>
+        <v>83756.07945</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>88413.46094999999</v>
+        <v>101060.43354</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>243354.2864</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>90291.62423999999</v>
+        <v>89304.02185999998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>189006.16002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>222885.28034</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>367930.912</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>957</v>
@@ -3038,34 +3210,37 @@
         <v>1078</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1100</v>
+        <v>1122</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1117</v>
+        <v>1139</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1191</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1229</v>
+        <v>1254</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1409</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>